--- a/public/offer1_comparison.xlsx
+++ b/public/offer1_comparison.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Policy</t>
   </si>
   <si>
     <t>incidunt - Schamberger, Cormier and Goldner</t>
+  </si>
+  <si>
+    <t>architecto - Smitham-DuBuque</t>
   </si>
   <si>
     <t>Net Rate</t>
@@ -41,7 +44,13 @@
     <t>مغطي</t>
   </si>
   <si>
+    <t>مغطى بحد اقصى  400,000جنيه مصري</t>
+  </si>
+  <si>
     <t>أماكن الإصلاح</t>
+  </si>
+  <si>
+    <t>الإصلاح لدى الوكيل و قائمة مراكز الخدمة المتعاقدة مع أليانز أو أي مركز خدمة مفضل</t>
   </si>
   <si>
     <t>التحملات ونسبة الاستهلاك المطبقة على المطالبات</t>
@@ -63,6 +72,9 @@
   </si>
   <si>
     <t>تمام</t>
+  </si>
+  <si>
+    <t>مغطى بحد اقصى 150,000جنيه مصري</t>
   </si>
   <si>
     <t>المسئولية المدنية تجاه سيارات الغير</t>
@@ -503,7 +515,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
@@ -530,12 +544,14 @@
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>3.98</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>4.24</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -562,12 +578,14 @@
     </row>
     <row r="3" spans="1:26" customHeight="1" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>57710.0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>61480.0</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -594,12 +612,14 @@
     </row>
     <row r="4" spans="1:26" customHeight="1" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>58210.0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>61480.0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -654,7 +674,7 @@
     </row>
     <row r="6" spans="1:26" customHeight="1" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -684,12 +704,14 @@
     </row>
     <row r="7" spans="1:26" customHeight="1" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -716,10 +738,12 @@
     </row>
     <row r="8" spans="1:26" customHeight="1" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -746,7 +770,7 @@
     </row>
     <row r="9" spans="1:26" customHeight="1" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -776,10 +800,12 @@
     </row>
     <row r="10" spans="1:26" customHeight="1" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -806,7 +832,7 @@
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -836,10 +862,10 @@
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -868,12 +894,14 @@
     </row>
     <row r="13" spans="1:26" customHeight="1" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -900,7 +928,7 @@
     </row>
     <row r="14" spans="1:26" customHeight="1" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -930,7 +958,7 @@
     </row>
     <row r="15" spans="1:26" customHeight="1" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -960,7 +988,7 @@
     </row>
     <row r="16" spans="1:26" customHeight="1" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -990,7 +1018,7 @@
     </row>
     <row r="17" spans="1:26" customHeight="1" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1020,7 +1048,7 @@
     </row>
     <row r="18" spans="1:26" customHeight="1" ht="14.25">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1050,7 +1078,7 @@
     </row>
     <row r="19" spans="1:26" customHeight="1" ht="14.25">
       <c r="A19" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1080,10 +1108,10 @@
     </row>
     <row r="20" spans="1:26" customHeight="1" ht="14.25">
       <c r="A20" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
